--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ccr10</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,40 +543,40 @@
         <v>0.72367</v>
       </c>
       <c r="I2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N2">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P2">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q2">
-        <v>0.1169195827344445</v>
+        <v>0.1376466976511111</v>
       </c>
       <c r="R2">
-        <v>1.05227624461</v>
+        <v>1.23882027886</v>
       </c>
       <c r="S2">
-        <v>0.0683147688590451</v>
+        <v>0.08536678258957593</v>
       </c>
       <c r="T2">
-        <v>0.0683147688590451</v>
+        <v>0.08536678258957596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,10 +605,10 @@
         <v>0.72367</v>
       </c>
       <c r="I3">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J3">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N3">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P3">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q3">
-        <v>0.0530208082588889</v>
+        <v>0.1169195827344444</v>
       </c>
       <c r="R3">
-        <v>0.4771872743300001</v>
+        <v>1.05227624461</v>
       </c>
       <c r="S3">
-        <v>0.03097944908982877</v>
+        <v>0.07251208180129329</v>
       </c>
       <c r="T3">
-        <v>0.03097944908982877</v>
+        <v>0.07251208180129332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,40 +667,40 @@
         <v>0.72367</v>
       </c>
       <c r="I4">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J4">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N4">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P4">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q4">
-        <v>0.01180884706</v>
+        <v>0.07405274906111112</v>
       </c>
       <c r="R4">
-        <v>0.10627962354</v>
+        <v>0.6664747415500001</v>
       </c>
       <c r="S4">
-        <v>0.006899773660910059</v>
+        <v>0.0459266007622179</v>
       </c>
       <c r="T4">
-        <v>0.006899773660910059</v>
+        <v>0.0459266007622179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H5">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I5">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J5">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N5">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P5">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q5">
-        <v>0.2196673494213334</v>
+        <v>0.07645329013799999</v>
       </c>
       <c r="R5">
-        <v>1.977006144792</v>
+        <v>0.688079611242</v>
       </c>
       <c r="S5">
-        <v>0.1283491084267834</v>
+        <v>0.04741538670263719</v>
       </c>
       <c r="T5">
-        <v>0.1283491084267834</v>
+        <v>0.0474153867026372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H6">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I6">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J6">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N6">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P6">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q6">
-        <v>0.09961496733066669</v>
+        <v>0.06494080086299998</v>
       </c>
       <c r="R6">
-        <v>0.8965347059760002</v>
+        <v>0.5844672077669999</v>
       </c>
       <c r="S6">
-        <v>0.05820388089779782</v>
+        <v>0.04027548297973943</v>
       </c>
       <c r="T6">
-        <v>0.05820388089779782</v>
+        <v>0.04027548297973944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +838,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.133983</v>
+      </c>
+      <c r="H7">
+        <v>0.401949</v>
+      </c>
+      <c r="I7">
+        <v>0.1131999432238703</v>
+      </c>
+      <c r="J7">
+        <v>0.1131999432238703</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.4532080000000001</v>
-      </c>
-      <c r="H7">
-        <v>1.359624</v>
-      </c>
-      <c r="I7">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="J7">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M7">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N7">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P7">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q7">
-        <v>0.022186344432</v>
+        <v>0.041131217865</v>
       </c>
       <c r="R7">
-        <v>0.199677099888</v>
+        <v>0.370180960785</v>
       </c>
       <c r="S7">
-        <v>0.0129632261444321</v>
+        <v>0.02550907354149367</v>
       </c>
       <c r="T7">
-        <v>0.0129632261444321</v>
+        <v>0.02550907354149367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,55 +900,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0.8083896666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.425169</v>
+      </c>
+      <c r="I8">
+        <v>0.6829945916230425</v>
+      </c>
+      <c r="J8">
+        <v>0.6829945916230425</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H8">
-        <v>4.73131</v>
-      </c>
-      <c r="I8">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J8">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M8">
-        <v>0.4846943333333333</v>
+        <v>0.5706193333333334</v>
       </c>
       <c r="N8">
-        <v>1.454083</v>
+        <v>1.711858</v>
       </c>
       <c r="O8">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130462</v>
       </c>
       <c r="P8">
-        <v>0.6433016390425528</v>
+        <v>0.4188640502130463</v>
       </c>
       <c r="Q8">
-        <v>0.7644130487477778</v>
+        <v>0.4612827726668889</v>
       </c>
       <c r="R8">
-        <v>6.879717438729999</v>
+        <v>4.151544954002</v>
       </c>
       <c r="S8">
-        <v>0.4466377617567243</v>
+        <v>0.2860818809208331</v>
       </c>
       <c r="T8">
-        <v>0.4466377617567243</v>
+        <v>0.2860818809208331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G9">
-        <v>1.577103333333333</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H9">
-        <v>4.73131</v>
+        <v>2.425169</v>
       </c>
       <c r="I9">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J9">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2197996666666667</v>
+        <v>0.4846943333333333</v>
       </c>
       <c r="N9">
-        <v>0.6593990000000001</v>
+        <v>1.454083</v>
       </c>
       <c r="O9">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="P9">
-        <v>0.2917250648573845</v>
+        <v>0.3557906641356566</v>
       </c>
       <c r="Q9">
-        <v>0.3466467869655556</v>
+        <v>0.3918218905585555</v>
       </c>
       <c r="R9">
-        <v>3.11982108269</v>
+        <v>3.526397015026999</v>
       </c>
       <c r="S9">
-        <v>0.2025417348697579</v>
+        <v>0.2430030993546239</v>
       </c>
       <c r="T9">
-        <v>0.2025417348697579</v>
+        <v>0.2430030993546239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G10">
-        <v>1.577103333333333</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H10">
-        <v>4.73131</v>
+        <v>2.425169</v>
       </c>
       <c r="I10">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J10">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.048954</v>
+        <v>0.3069883333333334</v>
       </c>
       <c r="N10">
-        <v>0.146862</v>
+        <v>0.920965</v>
       </c>
       <c r="O10">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="P10">
-        <v>0.06497329610006264</v>
+        <v>0.2253452856512971</v>
       </c>
       <c r="Q10">
-        <v>0.07720551657999999</v>
+        <v>0.2481661964538889</v>
       </c>
       <c r="R10">
-        <v>0.6948496492199999</v>
+        <v>2.233495768085</v>
       </c>
       <c r="S10">
-        <v>0.04511029629472048</v>
+        <v>0.1539096113475855</v>
       </c>
       <c r="T10">
-        <v>0.04511029629472048</v>
+        <v>0.1539096113475855</v>
       </c>
     </row>
   </sheetData>
